--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail1 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail1 Features.xlsx
@@ -2834,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.594051380768887</v>
+        <v>1.637857713956003</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.804722693573404</v>
@@ -2923,7 +2923,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.620252359547574</v>
+        <v>1.663342160844573</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.465713928716667</v>
@@ -3012,7 +3012,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.520038549069976</v>
+        <v>1.558670793382744</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.054228188790258</v>
@@ -3101,7 +3101,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.525641789679192</v>
+        <v>1.56440329743007</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.048792748734602</v>
@@ -3190,7 +3190,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.545278429779795</v>
+        <v>1.583179616690229</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.089875190464733</v>
@@ -3279,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.560585299658079</v>
+        <v>1.599307598080479</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.073555033192359</v>
@@ -3368,7 +3368,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.538392288974263</v>
+        <v>1.575317877559115</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.131290981026066</v>
@@ -3457,7 +3457,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.531256308850857</v>
+        <v>1.569596394504899</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.010358213602498</v>
@@ -3546,7 +3546,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.537527318580713</v>
+        <v>1.57845084086549</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.08357003255736</v>
@@ -3635,7 +3635,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.538134059359194</v>
+        <v>1.581280680501843</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.098377652261541</v>
@@ -3724,7 +3724,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.564447402754163</v>
+        <v>1.607507461665872</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.120603724202335</v>
@@ -3813,7 +3813,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.571867038965524</v>
+        <v>1.615602010082178</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.07016399843851</v>
@@ -3902,7 +3902,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.571638680171894</v>
+        <v>1.6173906345288</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.087386866537726</v>
@@ -3991,7 +3991,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.579176928879798</v>
+        <v>1.620069872785883</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.980282199337062</v>
@@ -4080,7 +4080,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598188953381368</v>
+        <v>1.641769155270445</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.070365077911392</v>
@@ -4169,7 +4169,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.607979202180025</v>
+        <v>1.648120015611833</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.100869769554012</v>
@@ -4258,7 +4258,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.583528570986843</v>
+        <v>1.626429480408825</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.162782123888816</v>
@@ -4347,7 +4347,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.650288603186336</v>
+        <v>1.691651883334626</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.939103357530043</v>
@@ -4436,7 +4436,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651668871043884</v>
+        <v>1.694705766633893</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.943638557173861</v>
@@ -4525,7 +4525,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.657825406972824</v>
+        <v>1.699884634965909</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.595027132506682</v>
@@ -4614,7 +4614,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.673465458589708</v>
+        <v>1.714739645908105</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.88309083927573</v>
@@ -4703,7 +4703,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.728055840170567</v>
+        <v>1.768379000653825</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.795701793202638</v>
@@ -4792,7 +4792,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.717635741996872</v>
+        <v>1.75335977458997</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.689795419148699</v>
@@ -4881,7 +4881,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.704032900672908</v>
+        <v>1.7386239916329</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.711469621020862</v>
@@ -4970,7 +4970,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.705970003945415</v>
+        <v>1.747494318455613</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.753712875698377</v>
@@ -5059,7 +5059,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.696342569166737</v>
+        <v>1.741014474472245</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.760315021680086</v>
@@ -5148,7 +5148,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.700004212185643</v>
+        <v>1.747013224869547</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.689431638692118</v>
@@ -5237,7 +5237,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.703675372289961</v>
+        <v>1.750818088003091</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.798288987014491</v>
@@ -5326,7 +5326,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.677179227627648</v>
+        <v>1.725684163756704</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.762883329614967</v>
@@ -5415,7 +5415,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.677647155502805</v>
+        <v>1.724785177651957</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.721346177559718</v>
@@ -5504,7 +5504,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.655724737354828</v>
+        <v>1.699496685063411</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.622442885778475</v>
@@ -5593,7 +5593,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.644846309584421</v>
+        <v>1.692307775076222</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.534745066558284</v>
@@ -5682,7 +5682,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.638781262151992</v>
+        <v>1.68617750844125</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.632478838025062</v>
@@ -5771,7 +5771,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.631926477237503</v>
+        <v>1.669464157066356</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.632977180832089</v>
@@ -5860,7 +5860,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.634929096644886</v>
+        <v>1.681738670864559</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.617262390013475</v>
@@ -5949,7 +5949,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.636711389325385</v>
+        <v>1.6832330563857</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.654083265401896</v>
@@ -6038,7 +6038,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610655528152736</v>
+        <v>1.659836475659958</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.642080065756493</v>
@@ -6127,7 +6127,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.61781695834113</v>
+        <v>1.66966383920028</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.431382981026084</v>
@@ -6216,7 +6216,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619424656036179</v>
+        <v>1.670833521305036</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.443284598505346</v>
@@ -6305,7 +6305,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.612705315208394</v>
+        <v>1.663512965437932</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.679702983623146</v>
@@ -6394,7 +6394,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.600984756882032</v>
+        <v>1.650586454191303</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.572285214334564</v>
@@ -6483,7 +6483,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.595939980160489</v>
+        <v>1.642800150899033</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.626388982485418</v>
@@ -6769,7 +6769,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.789109899618761</v>
+        <v>1.791018067059876</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.998645104240963</v>
@@ -6858,7 +6858,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.788823041118555</v>
+        <v>1.788479938408658</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.591180589245569</v>
@@ -6947,7 +6947,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.718254929502971</v>
+        <v>1.71064462908834</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.027139873720666</v>
@@ -7036,7 +7036,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.705221661148924</v>
+        <v>1.692968152809982</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.884405530048402</v>
@@ -7125,7 +7125,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.712273506589355</v>
+        <v>1.698857558683897</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.562103677998855</v>
@@ -7214,7 +7214,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.713866407734168</v>
+        <v>1.698000271662217</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.853447977681989</v>
@@ -7303,7 +7303,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.706709293388387</v>
+        <v>1.68305510138547</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.387793155405086</v>
@@ -7392,7 +7392,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.637531234506009</v>
+        <v>1.615428836489318</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.934533296193869</v>
@@ -7481,7 +7481,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.654307887794245</v>
+        <v>1.629939625344483</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.077961793742547</v>
@@ -7570,7 +7570,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.671458463958363</v>
+        <v>1.651428596410179</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.197812073755278</v>
@@ -7659,7 +7659,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.686983817281102</v>
+        <v>1.66841906767559</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.189210363893864</v>
@@ -7748,7 +7748,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.681122459789669</v>
+        <v>1.661348643053727</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.159275754286477</v>
@@ -7837,7 +7837,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.681189938674566</v>
+        <v>1.664047764917807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.20717078639261</v>
@@ -7926,7 +7926,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.6829036509471</v>
+        <v>1.6602460592174</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.869968618025479</v>
@@ -8015,7 +8015,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.68367522687626</v>
+        <v>1.660525559484274</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.099926121534224</v>
@@ -8104,7 +8104,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.691703713317624</v>
+        <v>1.6630740398934</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.050166027752518</v>
@@ -8193,7 +8193,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.695071488461707</v>
+        <v>1.660792780602131</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.095304624831714</v>
@@ -8282,7 +8282,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.693035712376969</v>
+        <v>1.66775776393986</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.416423464703334</v>
@@ -8371,7 +8371,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.691752040863796</v>
+        <v>1.661744933286769</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.028375804805527</v>
@@ -8460,7 +8460,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.695329359554684</v>
+        <v>1.661609669307879</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.393132161546681</v>
@@ -8549,7 +8549,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.707437063432363</v>
+        <v>1.673545458314361</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.230399545362331</v>
@@ -8638,7 +8638,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.722884976345206</v>
+        <v>1.693028756895511</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.167263659834516</v>
@@ -8727,7 +8727,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.713967359949286</v>
+        <v>1.685465897286598</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.246278522142484</v>
@@ -8816,7 +8816,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.717864594326376</v>
+        <v>1.694522480726903</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.969088619705497</v>
@@ -8905,7 +8905,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.724221917680389</v>
+        <v>1.703118515467954</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.787470194628984</v>
@@ -8994,7 +8994,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.732039860365796</v>
+        <v>1.711981347701047</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.599660620571445</v>
@@ -9083,7 +9083,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.744809330669055</v>
+        <v>1.725128054799577</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.485057330754581</v>
@@ -9172,7 +9172,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.756477361907288</v>
+        <v>1.740083315914703</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.49262406111841</v>
@@ -9261,7 +9261,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.743341893768725</v>
+        <v>1.736126721067208</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.878852412095989</v>
@@ -9350,7 +9350,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.762871046279606</v>
+        <v>1.758685277458216</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.667612940415081</v>
@@ -9439,7 +9439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.787874225459405</v>
+        <v>1.789056141438683</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.782627627024119</v>
@@ -9528,7 +9528,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.791266720813997</v>
+        <v>1.795384177197624</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.773161480270676</v>
@@ -9617,7 +9617,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.774938596077831</v>
+        <v>1.781621221201146</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.882577157255569</v>
@@ -9706,7 +9706,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.768409963972332</v>
+        <v>1.78143212577725</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.864088040664475</v>
@@ -9795,7 +9795,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.772900184257657</v>
+        <v>1.790439765319821</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.938734813236219</v>
@@ -9884,7 +9884,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.768463532770057</v>
+        <v>1.783123204336948</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.91839996584621</v>
@@ -9973,7 +9973,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.770783823728036</v>
+        <v>1.783828136076917</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.89546067388454</v>
@@ -10062,7 +10062,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.774099094167441</v>
+        <v>1.787423764343495</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.890388683032175</v>
@@ -10151,7 +10151,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.766993277909468</v>
+        <v>1.775507964765678</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.919949968143627</v>
@@ -10240,7 +10240,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.757745944321189</v>
+        <v>1.760810875374218</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.944459177678111</v>
@@ -10329,7 +10329,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.746769050162063</v>
+        <v>1.747141263084168</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.928956814268726</v>
@@ -10418,7 +10418,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.746197767395795</v>
+        <v>1.744322825790197</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.916516891373227</v>
@@ -10704,7 +10704,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.843619030007043</v>
+        <v>1.831131676711257</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.593414414859314</v>
@@ -10793,7 +10793,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.845771877307183</v>
+        <v>1.823828204957332</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.560904499628071</v>
@@ -10882,7 +10882,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.770209156577519</v>
+        <v>1.747059678722177</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.860160700665171</v>
@@ -10971,7 +10971,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.750486304516403</v>
+        <v>1.718644018449637</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.819278489608903</v>
@@ -11060,7 +11060,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.738181358220764</v>
+        <v>1.710365778599698</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.764369391330152</v>
@@ -11149,7 +11149,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.745576692660962</v>
+        <v>1.713198198798055</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.811281248504464</v>
@@ -11238,7 +11238,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.721025402120106</v>
+        <v>1.688358720613747</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.819479870756783</v>
@@ -11327,7 +11327,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.641206553019767</v>
+        <v>1.608503222246571</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.497947492836617</v>
@@ -11416,7 +11416,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.647625209838153</v>
+        <v>1.608029682026171</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.966647230876208</v>
@@ -11505,7 +11505,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.646996478459648</v>
+        <v>1.606653420730754</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.95803550993044</v>
@@ -11594,7 +11594,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.661283313666412</v>
+        <v>1.623311354930142</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.156582419442751</v>
@@ -11683,7 +11683,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.656234236612819</v>
+        <v>1.622544741400157</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.841719867909897</v>
@@ -11772,7 +11772,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.656710213274421</v>
+        <v>1.626951524386795</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.975771040425233</v>
@@ -11861,7 +11861,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.661830524680424</v>
+        <v>1.63416168627787</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.95535337189637</v>
@@ -11950,7 +11950,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.670608399281239</v>
+        <v>1.647556836194478</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.24737833647225</v>
@@ -12039,7 +12039,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.670410584400163</v>
+        <v>1.64647402619804</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.107962198241221</v>
@@ -12128,7 +12128,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.664940625622597</v>
+        <v>1.65039863968173</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.982377526714252</v>
@@ -12217,7 +12217,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.677011473536171</v>
+        <v>1.665583590258791</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.067604569073983</v>
@@ -12306,7 +12306,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.676845441333806</v>
+        <v>1.666903701118625</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.173788130252076</v>
@@ -12395,7 +12395,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.687495216036011</v>
+        <v>1.671026369152553</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.064269427060105</v>
@@ -12484,7 +12484,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.692425497581724</v>
+        <v>1.677027919545391</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.88239614915766</v>
@@ -12573,7 +12573,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.715814737559402</v>
+        <v>1.699555985574309</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.149391999964533</v>
@@ -12662,7 +12662,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.709645485224681</v>
+        <v>1.693898349274846</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.537410898985293</v>
@@ -12751,7 +12751,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.702780513145198</v>
+        <v>1.692945172031391</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.62024254503243</v>
@@ -12840,7 +12840,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.704343826895387</v>
+        <v>1.699239464959936</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.401481332195771</v>
@@ -12929,7 +12929,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.687876384418808</v>
+        <v>1.685235507809965</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.068621373273206</v>
@@ -13018,7 +13018,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.699334370059622</v>
+        <v>1.693492048206685</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.548624306159824</v>
@@ -13107,7 +13107,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.713379774825967</v>
+        <v>1.708179624918009</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.353975356033285</v>
@@ -13196,7 +13196,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.705888247376622</v>
+        <v>1.704589008581465</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.792616212953539</v>
@@ -13285,7 +13285,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.702714620964618</v>
+        <v>1.700090505887877</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.774767025280099</v>
@@ -13374,7 +13374,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.744785817347819</v>
+        <v>1.740670294030999</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.2829911742779</v>
@@ -13463,7 +13463,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.750249462053177</v>
+        <v>1.746069166690672</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.361450043031324</v>
@@ -13552,7 +13552,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.726145446343761</v>
+        <v>1.730562784612545</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.396990762536758</v>
@@ -13641,7 +13641,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.716966908891987</v>
+        <v>1.722395293325449</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.44547110841119</v>
@@ -13730,7 +13730,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.712484065156047</v>
+        <v>1.72388484465884</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.455942978690649</v>
@@ -13819,7 +13819,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710497162353036</v>
+        <v>1.71971235071069</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.544546272714495</v>
@@ -13908,7 +13908,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.714162238147846</v>
+        <v>1.722533766414044</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.400203821046153</v>
@@ -13997,7 +13997,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.724022358745537</v>
+        <v>1.733227840511552</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.533696659440769</v>
@@ -14086,7 +14086,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.728844271114115</v>
+        <v>1.738811972973854</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.533593152948657</v>
@@ -14175,7 +14175,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.722720666844237</v>
+        <v>1.732208441579995</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.477097476220929</v>
@@ -14264,7 +14264,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.735102010297224</v>
+        <v>1.737484144150886</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.514541723426061</v>
@@ -14353,7 +14353,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.730667435269441</v>
+        <v>1.731908825199796</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.547717300933701</v>
@@ -14639,7 +14639,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.761793829051719</v>
+        <v>1.764142853469193</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.758128978905327</v>
@@ -14728,7 +14728,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.775725408628036</v>
+        <v>1.778974009097878</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.806778529922828</v>
@@ -14817,7 +14817,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.759779996361867</v>
+        <v>1.761101459416994</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.624131833654461</v>
@@ -14906,7 +14906,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.76066599487133</v>
+        <v>1.763250538888872</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.71770344226381</v>
@@ -14995,7 +14995,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.771721398499074</v>
+        <v>1.76877308897442</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.771917499902336</v>
@@ -15084,7 +15084,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.768181824181028</v>
+        <v>1.764501495211753</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.699006154642005</v>
@@ -15173,7 +15173,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.77061017006593</v>
+        <v>1.765773434373325</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.778690716492646</v>
@@ -15262,7 +15262,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.711048091426657</v>
+        <v>1.701318250593324</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.123588053295857</v>
@@ -15351,7 +15351,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.719711849644685</v>
+        <v>1.705215422826837</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.346984589579249</v>
@@ -15440,7 +15440,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.718737339445551</v>
+        <v>1.707240400766322</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.348093852899561</v>
@@ -15529,7 +15529,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.725429222933466</v>
+        <v>1.718824750460468</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.12453543352306</v>
@@ -15618,7 +15618,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.739208980447818</v>
+        <v>1.725141024340394</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.186602869998279</v>
@@ -15707,7 +15707,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.738744951092702</v>
+        <v>1.718210964324029</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.775108499197311</v>
@@ -15796,7 +15796,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.741299640646125</v>
+        <v>1.723366583741567</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.234089348779063</v>
@@ -15885,7 +15885,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.743549399414028</v>
+        <v>1.727903204957894</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.528954314481375</v>
@@ -15974,7 +15974,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.748778239057788</v>
+        <v>1.735242316713282</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.055810221754005</v>
@@ -16063,7 +16063,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.74229526254211</v>
+        <v>1.731535654812886</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.741962372883318</v>
@@ -16152,7 +16152,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.752833891372551</v>
+        <v>1.743617391964897</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.406037544384466</v>
@@ -16241,7 +16241,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.750130498704642</v>
+        <v>1.739610164161015</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.255820533234357</v>
@@ -16330,7 +16330,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.752110688286733</v>
+        <v>1.742749278135067</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.701136520374316</v>
@@ -16419,7 +16419,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.763560092626606</v>
+        <v>1.753250049302314</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.692907177044872</v>
@@ -16508,7 +16508,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.755457246368729</v>
+        <v>1.748236989667787</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.267693291141925</v>
@@ -16597,7 +16597,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.763545148056253</v>
+        <v>1.749859234194263</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.837233357130042</v>
@@ -16686,7 +16686,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.764791384025896</v>
+        <v>1.754946851567415</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.814707308872284</v>
@@ -16775,7 +16775,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.761493323986876</v>
+        <v>1.752730053305779</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.436418369631583</v>
@@ -16864,7 +16864,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.761415742578228</v>
+        <v>1.75356255816257</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.177270552955652</v>
@@ -16953,7 +16953,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.761125986401529</v>
+        <v>1.759558965089194</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.570923427644881</v>
@@ -17042,7 +17042,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.765379453327277</v>
+        <v>1.772014397457241</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.658597688506919</v>
@@ -17131,7 +17131,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.774696376189387</v>
+        <v>1.782292138509724</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.035763775786819</v>
@@ -17220,7 +17220,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.776918256250127</v>
+        <v>1.786669260372624</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.913881303425824</v>
@@ -17309,7 +17309,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.782274361280694</v>
+        <v>1.793262741546896</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.32025817370247</v>
@@ -17398,7 +17398,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.780146557835338</v>
+        <v>1.791327241668429</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.570770872356495</v>
@@ -17487,7 +17487,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.744417435711444</v>
+        <v>1.760965610595285</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.029612724024859</v>
@@ -17576,7 +17576,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.745957765455431</v>
+        <v>1.761154140792328</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.045728747237415</v>
@@ -17665,7 +17665,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.735217945686715</v>
+        <v>1.759820244159483</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.268033446847115</v>
@@ -17754,7 +17754,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.746543634147898</v>
+        <v>1.773441674059822</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.221024952156139</v>
@@ -17843,7 +17843,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.760707276658734</v>
+        <v>1.78427347016989</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.010233573176668</v>
@@ -17932,7 +17932,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.75368238872109</v>
+        <v>1.781993837708669</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.313336303335912</v>
@@ -18021,7 +18021,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.752032271655925</v>
+        <v>1.779237739670325</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.97443564463473</v>
@@ -18110,7 +18110,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.745234892416428</v>
+        <v>1.767741953703409</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.964630943247604</v>
@@ -18199,7 +18199,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.750552057040147</v>
+        <v>1.768287164503866</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.998184690343813</v>
@@ -18288,7 +18288,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.748562200826947</v>
+        <v>1.76391227575628</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.054797066065748</v>
@@ -18574,7 +18574,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.648462416671462</v>
+        <v>1.650013326285972</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.266107858688736</v>
@@ -18663,7 +18663,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.645684412505439</v>
+        <v>1.649393023340315</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.257908420186955</v>
@@ -18752,7 +18752,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.637971262127454</v>
+        <v>1.636352684993138</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.235841801594419</v>
@@ -18841,7 +18841,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.646428726272108</v>
+        <v>1.64476457786662</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.205624442525486</v>
@@ -18930,7 +18930,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.640669114957287</v>
+        <v>1.639312340203184</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.220811336106103</v>
@@ -19019,7 +19019,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.650001479832216</v>
+        <v>1.649367243515251</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.2601735972268</v>
@@ -19108,7 +19108,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.647901588114626</v>
+        <v>1.643279097192619</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.020996487029277</v>
@@ -19197,7 +19197,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543258376601143</v>
+        <v>1.534146991011645</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.535401415339466</v>
@@ -19286,7 +19286,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.540791738063129</v>
+        <v>1.525286439334662</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.930219774051496</v>
@@ -19375,7 +19375,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.555516992297031</v>
+        <v>1.542254920091761</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.993561654809136</v>
@@ -19464,7 +19464,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.562214085224904</v>
+        <v>1.547701868123218</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.949832889061764</v>
@@ -19553,7 +19553,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.541660213307767</v>
+        <v>1.535638894596242</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.981194288498248</v>
@@ -19642,7 +19642,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.541112289145512</v>
+        <v>1.536862442920319</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.912934895467199</v>
@@ -19731,7 +19731,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.544031631538032</v>
+        <v>1.536795725601524</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.78594377599085</v>
@@ -19820,7 +19820,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534387404651903</v>
+        <v>1.530183704816577</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.809014308080386</v>
@@ -19909,7 +19909,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.544838269658245</v>
+        <v>1.541942775060414</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.944304341717207</v>
@@ -19998,7 +19998,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.557624924591137</v>
+        <v>1.554646877420263</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.59379953440034</v>
@@ -20087,7 +20087,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.554880806199588</v>
+        <v>1.555370803396152</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.975431293627656</v>
@@ -20176,7 +20176,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.549636879838646</v>
+        <v>1.543589743896548</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.035695914027146</v>
@@ -20265,7 +20265,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554181686101451</v>
+        <v>1.548120705046027</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.728299733116519</v>
@@ -20354,7 +20354,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.557227636403903</v>
+        <v>1.550897889443496</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.774985080516864</v>
@@ -20443,7 +20443,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.574786885768147</v>
+        <v>1.56747954089302</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.78401750301949</v>
@@ -20532,7 +20532,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.575482892261179</v>
+        <v>1.566764355978554</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.277760924651657</v>
@@ -20621,7 +20621,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.575199055365164</v>
+        <v>1.568699077632849</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.305179698023815</v>
@@ -20710,7 +20710,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.576862572853845</v>
+        <v>1.571303651603092</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.312235147798009</v>
@@ -20799,7 +20799,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581352010284786</v>
+        <v>1.572507283866897</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.9735828847359</v>
@@ -20888,7 +20888,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.598261587943471</v>
+        <v>1.585297518133792</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.032102897242742</v>
@@ -20977,7 +20977,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.615980291582681</v>
+        <v>1.603306082826322</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.392776690163244</v>
@@ -21066,7 +21066,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.624629461337772</v>
+        <v>1.613322276043983</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.20819657928151</v>
@@ -21155,7 +21155,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.642009059985344</v>
+        <v>1.625307729918519</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.276242524437504</v>
@@ -21244,7 +21244,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.635593419411401</v>
+        <v>1.618950513010766</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.124189039354911</v>
@@ -21333,7 +21333,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.628574460568853</v>
+        <v>1.603230886815303</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.964280373785579</v>
@@ -21422,7 +21422,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.590605544562847</v>
+        <v>1.580295684417833</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.90430003749073</v>
@@ -21511,7 +21511,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.579647060328861</v>
+        <v>1.574036600311402</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.944007617889893</v>
@@ -21600,7 +21600,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.579268699979661</v>
+        <v>1.579382504726032</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.02669590987232</v>
@@ -21689,7 +21689,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.568647078025009</v>
+        <v>1.569457740747464</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.00455681807022</v>
@@ -21778,7 +21778,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.567764315839653</v>
+        <v>1.567924892120152</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.799123935846608</v>
@@ -21867,7 +21867,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.571359051957716</v>
+        <v>1.575598083050494</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.869836306833835</v>
@@ -21956,7 +21956,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.566843688850181</v>
+        <v>1.56683597991997</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.042265326889935</v>
@@ -22045,7 +22045,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.557769176140356</v>
+        <v>1.556000844475426</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.951546124766296</v>
@@ -22134,7 +22134,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.552358943921677</v>
+        <v>1.545135374035905</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.115600093377418</v>
@@ -22223,7 +22223,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.551749763930582</v>
+        <v>1.539611348991303</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.973363230456306</v>
@@ -22509,7 +22509,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.414164663453419</v>
+        <v>1.435203092068938</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.593461486934903</v>
@@ -22598,7 +22598,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.427118665686073</v>
+        <v>1.45093332266218</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.328592928463489</v>
@@ -22687,7 +22687,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.434890096932208</v>
+        <v>1.453480551982847</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.353298977642413</v>
@@ -22776,7 +22776,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.468018714985861</v>
+        <v>1.486333491200038</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.476718570208562</v>
@@ -22865,7 +22865,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.50253362705782</v>
+        <v>1.52347817837766</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.32576732891904</v>
@@ -22954,7 +22954,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.50718484005597</v>
+        <v>1.531973778994817</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.562710097211628</v>
@@ -23043,7 +23043,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.513730766212527</v>
+        <v>1.536404823137152</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.234958283104586</v>
@@ -23132,7 +23132,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.515090252604717</v>
+        <v>1.537037223310236</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.269981240480641</v>
@@ -23221,7 +23221,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.547893971997294</v>
+        <v>1.574320661430878</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.568212998560795</v>
@@ -23310,7 +23310,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.546461611862565</v>
+        <v>1.573248459846069</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.739806436923832</v>
@@ -23399,7 +23399,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.575899008722622</v>
+        <v>1.609817593540811</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.749784760073698</v>
@@ -23488,7 +23488,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.590832474598823</v>
+        <v>1.6268065498417</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.639109969578746</v>
@@ -23577,7 +23577,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591737593336468</v>
+        <v>1.628666515309393</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.800159140073187</v>
@@ -23666,7 +23666,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.607644381733433</v>
+        <v>1.640867126657749</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.332803714415941</v>
@@ -23755,7 +23755,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.637244368039743</v>
+        <v>1.675385930303515</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.610452320249167</v>
@@ -23844,7 +23844,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.665644922791341</v>
+        <v>1.696744045701062</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.865806338917073</v>
@@ -23933,7 +23933,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.635754843640298</v>
+        <v>1.674389727747016</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.524140757545239</v>
@@ -24022,7 +24022,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.62471881121573</v>
+        <v>1.671832510064953</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.683395116808342</v>
@@ -24111,7 +24111,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.621025160928056</v>
+        <v>1.66806274343526</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.883050196556664</v>
@@ -24200,7 +24200,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.624530173222166</v>
+        <v>1.671370541948982</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.650401031297368</v>
@@ -24289,7 +24289,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.657923210237714</v>
+        <v>1.702930837876253</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.78596697219923</v>
@@ -24378,7 +24378,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.693501580784954</v>
+        <v>1.735046200391791</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.814238735067967</v>
@@ -24467,7 +24467,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.685694266791858</v>
+        <v>1.721500185754301</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.746595166242995</v>
@@ -24556,7 +24556,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.674903074846765</v>
+        <v>1.71501704175992</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.670476772453072</v>
@@ -24645,7 +24645,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.689746838661643</v>
+        <v>1.730328057928519</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.685965431794494</v>
@@ -24734,7 +24734,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.683078153073261</v>
+        <v>1.725579177363821</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.59201023493052</v>
@@ -24823,7 +24823,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.671661671484344</v>
+        <v>1.71546951708149</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.633642889423565</v>
@@ -24912,7 +24912,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.674599950336008</v>
+        <v>1.716938888632173</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.87013307943366</v>
@@ -25001,7 +25001,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.662773825746948</v>
+        <v>1.703780451893155</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.82977007061301</v>
@@ -25090,7 +25090,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.658223735013235</v>
+        <v>1.69968666188306</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.816239346470975</v>
@@ -25179,7 +25179,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.581628783764545</v>
+        <v>1.624050653655857</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.099955840771806</v>
@@ -25268,7 +25268,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.564555367288791</v>
+        <v>1.608926080695771</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.121725069381119</v>
@@ -25357,7 +25357,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.549290508285668</v>
+        <v>1.591743879644561</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.253625805458614</v>
@@ -25446,7 +25446,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536170350602768</v>
+        <v>1.568709741338166</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.185157336250591</v>
@@ -25535,7 +25535,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.539171570893465</v>
+        <v>1.580382079271199</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.233978098558731</v>
@@ -25624,7 +25624,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.54147945278453</v>
+        <v>1.581607176936396</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.213409454681334</v>
@@ -25713,7 +25713,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.525757136984245</v>
+        <v>1.568275272609983</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.177893200969517</v>
@@ -25802,7 +25802,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.530472984123</v>
+        <v>1.575536302656751</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.124819244028566</v>
@@ -25891,7 +25891,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.521170507074294</v>
+        <v>1.564769483616863</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.225905922071095</v>
@@ -25980,7 +25980,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.518582120968643</v>
+        <v>1.561398937978544</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.163816808873476</v>
@@ -26069,7 +26069,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.508575952202706</v>
+        <v>1.548989162014811</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.197950242686922</v>
@@ -26158,7 +26158,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.509540500517369</v>
+        <v>1.544543773025004</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.220096858152737</v>
